--- a/Emulator_BIOS_FONT_Info.xlsx
+++ b/Emulator_BIOS_FONT_Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHubProjects\Emulator-BIOS-FONT-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64FB1675-F63B-42AB-BAB8-A69369587CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C4DA8268-7CCB-4E2B-A707-11AEF542AAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EB3C6204-EFF6-471A-B286-D6BE976A3B52}"/>
   </bookViews>
@@ -927,10 +927,10 @@
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="24.25" customWidth="1"/>
-    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="57.625" customWidth="1"/>
-    <col min="9" max="9" width="56" customWidth="1"/>
+    <col min="6" max="6" width="56" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="57.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
@@ -950,19 +950,19 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -972,17 +972,17 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -995,17 +995,17 @@
       <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>12</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -1018,17 +1018,17 @@
       <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
-        <v>35</v>
+      <c r="F4" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
         <v>86</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>92</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -1041,17 +1041,17 @@
       <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>21</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -1064,17 +1064,17 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
-        <v>35</v>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>29</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -1087,17 +1087,17 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>21</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
@@ -1110,17 +1110,17 @@
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>20</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>21</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1133,17 +1133,17 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>20</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>21</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1156,17 +1156,17 @@
       <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>41</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>42</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
@@ -1179,17 +1179,17 @@
       <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" t="s">
-        <v>35</v>
+      <c r="F11" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
         <v>86</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>92</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
@@ -1202,17 +1202,17 @@
       <c r="E12" t="s">
         <v>72</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
         <v>65</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>66</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>70</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -1225,17 +1225,17 @@
       <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" t="s">
-        <v>35</v>
+      <c r="F13" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
         <v>73</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>74</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
@@ -1248,14 +1248,14 @@
       <c r="E14" t="s">
         <v>27</v>
       </c>
-      <c r="F14" t="s">
-        <v>35</v>
+      <c r="F14" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
         <v>75</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
@@ -1268,17 +1268,17 @@
       <c r="E15" t="s">
         <v>72</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
         <v>65</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>67</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>69</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -1291,17 +1291,17 @@
       <c r="E16" t="s">
         <v>72</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
         <v>65</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>67</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>69</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1320,17 +1320,17 @@
       <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" t="s">
-        <v>35</v>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
         <v>33</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>34</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -1349,17 +1349,17 @@
       <c r="E18" t="s">
         <v>27</v>
       </c>
-      <c r="F18" t="s">
-        <v>35</v>
+      <c r="F18" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
         <v>37</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>38</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -1378,17 +1378,17 @@
       <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" t="s">
-        <v>35</v>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
         <v>33</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>34</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
@@ -1407,17 +1407,17 @@
       <c r="E20" t="s">
         <v>27</v>
       </c>
-      <c r="F20" t="s">
-        <v>35</v>
+      <c r="F20" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
         <v>37</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>38</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
@@ -1436,17 +1436,17 @@
       <c r="E21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" t="s">
-        <v>35</v>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s">
         <v>33</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>34</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
@@ -1465,17 +1465,17 @@
       <c r="E22" t="s">
         <v>27</v>
       </c>
-      <c r="F22" t="s">
-        <v>35</v>
+      <c r="F22" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" t="s">
         <v>37</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>38</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
@@ -1494,17 +1494,17 @@
       <c r="E23" t="s">
         <v>10</v>
       </c>
-      <c r="F23" t="s">
-        <v>35</v>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" t="s">
         <v>33</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>34</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -1523,17 +1523,17 @@
       <c r="E24" t="s">
         <v>27</v>
       </c>
-      <c r="F24" t="s">
-        <v>35</v>
+      <c r="F24" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" t="s">
         <v>37</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>38</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
@@ -1552,17 +1552,17 @@
       <c r="E25" t="s">
         <v>10</v>
       </c>
-      <c r="F25" t="s">
-        <v>35</v>
+      <c r="F25" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s">
         <v>33</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>34</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -1581,17 +1581,17 @@
       <c r="E26" t="s">
         <v>27</v>
       </c>
-      <c r="F26" t="s">
-        <v>35</v>
+      <c r="F26" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" t="s">
         <v>37</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>38</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -1610,17 +1610,17 @@
       <c r="E27" t="s">
         <v>10</v>
       </c>
-      <c r="F27" t="s">
-        <v>35</v>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" t="s">
         <v>33</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>34</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
@@ -1639,17 +1639,17 @@
       <c r="E28" t="s">
         <v>27</v>
       </c>
-      <c r="F28" t="s">
-        <v>35</v>
+      <c r="F28" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" t="s">
         <v>37</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>38</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -1668,17 +1668,17 @@
       <c r="E29" t="s">
         <v>10</v>
       </c>
-      <c r="F29" t="s">
-        <v>35</v>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" t="s">
         <v>33</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>34</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
@@ -1697,17 +1697,17 @@
       <c r="E30" t="s">
         <v>27</v>
       </c>
-      <c r="F30" t="s">
-        <v>35</v>
+      <c r="F30" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" t="s">
         <v>37</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>38</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
@@ -1726,17 +1726,17 @@
       <c r="E31" t="s">
         <v>10</v>
       </c>
-      <c r="F31" t="s">
-        <v>35</v>
+      <c r="F31" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" t="s">
         <v>33</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>34</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
@@ -1755,17 +1755,17 @@
       <c r="E32" t="s">
         <v>27</v>
       </c>
-      <c r="F32" t="s">
-        <v>35</v>
+      <c r="F32" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" t="s">
         <v>37</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>38</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
@@ -1784,17 +1784,17 @@
       <c r="E33" t="s">
         <v>10</v>
       </c>
-      <c r="F33" t="s">
-        <v>35</v>
+      <c r="F33" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" t="s">
         <v>33</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>34</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
@@ -1813,17 +1813,17 @@
       <c r="E34" t="s">
         <v>27</v>
       </c>
-      <c r="F34" t="s">
-        <v>35</v>
+      <c r="F34" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" t="s">
         <v>37</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>38</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
@@ -1836,14 +1836,14 @@
       <c r="E35" t="s">
         <v>79</v>
       </c>
-      <c r="F35" t="s">
-        <v>35</v>
+      <c r="F35" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s">
         <v>80</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
@@ -1856,14 +1856,14 @@
       <c r="E36" t="s">
         <v>79</v>
       </c>
-      <c r="F36" t="s">
-        <v>35</v>
+      <c r="F36" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="G36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" t="s">
         <v>80</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
@@ -1876,17 +1876,17 @@
       <c r="E37" t="s">
         <v>10</v>
       </c>
-      <c r="F37" t="s">
-        <v>35</v>
+      <c r="F37" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="G37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" t="s">
         <v>83</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>93</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
@@ -1899,17 +1899,17 @@
       <c r="E38" t="s">
         <v>27</v>
       </c>
-      <c r="F38" t="s">
-        <v>35</v>
+      <c r="F38" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="G38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" t="s">
         <v>85</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>94</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
@@ -1922,17 +1922,17 @@
       <c r="E39" t="s">
         <v>27</v>
       </c>
-      <c r="F39" t="s">
-        <v>35</v>
+      <c r="F39" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="G39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" t="s">
         <v>86</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>92</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
@@ -1945,14 +1945,14 @@
       <c r="E40" t="s">
         <v>10</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" t="s">
         <v>17</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>45</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
@@ -1965,17 +1965,17 @@
       <c r="E41" t="s">
         <v>10</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" t="s">
         <v>17</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>56</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
@@ -1988,17 +1988,17 @@
       <c r="E42" t="s">
         <v>27</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" t="s">
         <v>17</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>56</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
@@ -2011,14 +2011,14 @@
       <c r="E43" t="s">
         <v>10</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" t="s">
         <v>17</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>61</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
@@ -2031,17 +2031,17 @@
       <c r="E44" t="s">
         <v>10</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" t="s">
         <v>48</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>46</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>47</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
@@ -2054,17 +2054,17 @@
       <c r="E45" t="s">
         <v>10</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" t="s">
         <v>48</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>46</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>47</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
@@ -2074,67 +2074,67 @@
       <c r="E46" t="s">
         <v>10</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" t="s">
         <v>17</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>89</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>88</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{212907F0-5A20-4F35-A080-55AEE955791E}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{15A55D1B-8486-46E1-AECC-F842B4E367B6}"/>
-    <hyperlink ref="I5" r:id="rId3" location="#6" xr:uid="{21E711BF-A530-4A3B-96B9-6AC42B8E65C8}"/>
-    <hyperlink ref="I7" r:id="rId4" location="#6" xr:uid="{11A6A834-CF46-44D8-9DF9-685CF26CB7E1}"/>
-    <hyperlink ref="I8" r:id="rId5" location="#6" xr:uid="{A856AC08-7FC8-48A6-A8F6-D995AECB89FD}"/>
-    <hyperlink ref="I9" r:id="rId6" location="#6" xr:uid="{FF41D707-1F23-400F-AD42-F3D25BFDA0A6}"/>
-    <hyperlink ref="I6" r:id="rId7" xr:uid="{6172AE25-B762-49F8-93DF-A9E1EE961822}"/>
-    <hyperlink ref="I29" r:id="rId8" xr:uid="{D1EF1F12-2E62-4CBE-A495-83B2B7873E90}"/>
-    <hyperlink ref="I30" r:id="rId9" xr:uid="{EA82A352-5803-4E41-B902-C087FF11BAA0}"/>
-    <hyperlink ref="I10" r:id="rId10" xr:uid="{E2BAAE1A-5A47-4428-851A-F90A28565FF1}"/>
-    <hyperlink ref="I40" r:id="rId11" xr:uid="{5514E71E-A95B-485A-A6AE-A353F71405DF}"/>
-    <hyperlink ref="I44" r:id="rId12" xr:uid="{C92CFF83-C30E-403D-81DB-EEB8503B5A52}"/>
-    <hyperlink ref="I45" r:id="rId13" xr:uid="{36FD8F44-FD8A-4A3E-BBF7-94D42A43ABD7}"/>
-    <hyperlink ref="I42" r:id="rId14" xr:uid="{611DF655-ED88-4881-AEBD-020E3EE50EFA}"/>
-    <hyperlink ref="I41" r:id="rId15" xr:uid="{6DC76E1C-A7EE-4BBF-91C4-403B9A679662}"/>
-    <hyperlink ref="I43" r:id="rId16" xr:uid="{F2A861B9-BF64-473D-ACB4-490197BF9AFC}"/>
-    <hyperlink ref="I15" r:id="rId17" xr:uid="{CD249503-E3DA-4F23-89D3-4E5EED7F542D}"/>
-    <hyperlink ref="I16" r:id="rId18" xr:uid="{8B57A924-86E8-4B2B-BBEA-051E073B310A}"/>
-    <hyperlink ref="I12" r:id="rId19" xr:uid="{7CE0FDB5-21A8-4E15-AEBF-5EA3CBF64A5A}"/>
-    <hyperlink ref="I14" r:id="rId20" xr:uid="{58A1F622-9F4F-4B23-A708-7107DB452479}"/>
-    <hyperlink ref="I35" r:id="rId21" xr:uid="{DCBE98D4-B0A5-4ED9-9FFA-83BBA849FA47}"/>
-    <hyperlink ref="I36" r:id="rId22" xr:uid="{2CDE461B-B8CB-4A66-9F49-E2219A489709}"/>
-    <hyperlink ref="I37" r:id="rId23" xr:uid="{A06BEF00-8A3F-4C3D-AC2B-3348FC404F24}"/>
-    <hyperlink ref="I39" r:id="rId24" xr:uid="{0282FB9B-42FB-439A-A1E7-48B59407839B}"/>
-    <hyperlink ref="I38" r:id="rId25" xr:uid="{67C6AAB6-8AE8-441D-9D53-774C7DEB4B21}"/>
-    <hyperlink ref="I4" r:id="rId26" xr:uid="{9135C0A2-C458-44CF-9CC7-76C7037D359A}"/>
-    <hyperlink ref="I11" r:id="rId27" xr:uid="{1C757C4C-9C9F-4D70-8901-9B1D64AD93BB}"/>
-    <hyperlink ref="I46" r:id="rId28" xr:uid="{2EA6B1B5-0A0D-4667-A5A4-9744DD64D619}"/>
-    <hyperlink ref="I13" r:id="rId29" xr:uid="{B7653C0F-781A-4648-9346-D834B1ECA82B}"/>
-    <hyperlink ref="I31" r:id="rId30" xr:uid="{1E8D4E10-0170-405E-AB0E-5D8C8D966B8E}"/>
-    <hyperlink ref="I32" r:id="rId31" xr:uid="{A63526C6-BC95-4D89-86E9-0CAF79AF1A82}"/>
-    <hyperlink ref="I33" r:id="rId32" xr:uid="{4CE95E19-A15D-4FBB-A2F4-FED5B88FF4C1}"/>
-    <hyperlink ref="I34" r:id="rId33" xr:uid="{78C37C45-5FE4-4329-9CA5-653FAE125404}"/>
-    <hyperlink ref="I19" r:id="rId34" xr:uid="{1BB8CE95-2359-4235-A103-E1FBD1D16463}"/>
-    <hyperlink ref="I20" r:id="rId35" xr:uid="{9E913672-6C4A-4FA8-AB2E-6DCF1838E5D6}"/>
-    <hyperlink ref="I21" r:id="rId36" xr:uid="{4089C4E2-CBC2-4927-BBB2-EAF7FC2CCFA4}"/>
-    <hyperlink ref="I22" r:id="rId37" xr:uid="{128F8774-B115-4831-AA93-7CCD8071692C}"/>
-    <hyperlink ref="I17" r:id="rId38" xr:uid="{9D12BF89-4118-4DF4-B83D-1973C07EC800}"/>
-    <hyperlink ref="I18" r:id="rId39" xr:uid="{4E6D1BF7-C728-4BF7-A786-AEE05E393B55}"/>
-    <hyperlink ref="I25" r:id="rId40" xr:uid="{A2417557-63CD-4C32-9020-47FB39ED5068}"/>
-    <hyperlink ref="I26" r:id="rId41" xr:uid="{FF1DC30F-E4A3-4AD4-9DAC-6FF96770F524}"/>
-    <hyperlink ref="I27" r:id="rId42" xr:uid="{7A71B4C2-0B08-4EAE-BC93-5EE23AB3705A}"/>
-    <hyperlink ref="I28" r:id="rId43" xr:uid="{CDD0CB2A-BAC4-4F3F-8AF3-197A13B55B6F}"/>
-    <hyperlink ref="I23" r:id="rId44" xr:uid="{A4B2C458-20EB-4BD8-8705-FA822280756C}"/>
-    <hyperlink ref="I24" r:id="rId45" xr:uid="{37635805-69B7-4C8B-B91C-209D0FA6BF97}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{212907F0-5A20-4F35-A080-55AEE955791E}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{15A55D1B-8486-46E1-AECC-F842B4E367B6}"/>
+    <hyperlink ref="F5" r:id="rId3" location="#6" xr:uid="{21E711BF-A530-4A3B-96B9-6AC42B8E65C8}"/>
+    <hyperlink ref="F7" r:id="rId4" location="#6" xr:uid="{11A6A834-CF46-44D8-9DF9-685CF26CB7E1}"/>
+    <hyperlink ref="F8" r:id="rId5" location="#6" xr:uid="{A856AC08-7FC8-48A6-A8F6-D995AECB89FD}"/>
+    <hyperlink ref="F9" r:id="rId6" location="#6" xr:uid="{FF41D707-1F23-400F-AD42-F3D25BFDA0A6}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{6172AE25-B762-49F8-93DF-A9E1EE961822}"/>
+    <hyperlink ref="F29" r:id="rId8" xr:uid="{D1EF1F12-2E62-4CBE-A495-83B2B7873E90}"/>
+    <hyperlink ref="F30" r:id="rId9" xr:uid="{EA82A352-5803-4E41-B902-C087FF11BAA0}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{E2BAAE1A-5A47-4428-851A-F90A28565FF1}"/>
+    <hyperlink ref="F40" r:id="rId11" xr:uid="{5514E71E-A95B-485A-A6AE-A353F71405DF}"/>
+    <hyperlink ref="F44" r:id="rId12" xr:uid="{C92CFF83-C30E-403D-81DB-EEB8503B5A52}"/>
+    <hyperlink ref="F45" r:id="rId13" xr:uid="{36FD8F44-FD8A-4A3E-BBF7-94D42A43ABD7}"/>
+    <hyperlink ref="F42" r:id="rId14" xr:uid="{611DF655-ED88-4881-AEBD-020E3EE50EFA}"/>
+    <hyperlink ref="F41" r:id="rId15" xr:uid="{6DC76E1C-A7EE-4BBF-91C4-403B9A679662}"/>
+    <hyperlink ref="F43" r:id="rId16" xr:uid="{F2A861B9-BF64-473D-ACB4-490197BF9AFC}"/>
+    <hyperlink ref="F15" r:id="rId17" xr:uid="{CD249503-E3DA-4F23-89D3-4E5EED7F542D}"/>
+    <hyperlink ref="F16" r:id="rId18" xr:uid="{8B57A924-86E8-4B2B-BBEA-051E073B310A}"/>
+    <hyperlink ref="F12" r:id="rId19" xr:uid="{7CE0FDB5-21A8-4E15-AEBF-5EA3CBF64A5A}"/>
+    <hyperlink ref="F14" r:id="rId20" xr:uid="{58A1F622-9F4F-4B23-A708-7107DB452479}"/>
+    <hyperlink ref="F35" r:id="rId21" xr:uid="{DCBE98D4-B0A5-4ED9-9FFA-83BBA849FA47}"/>
+    <hyperlink ref="F36" r:id="rId22" xr:uid="{2CDE461B-B8CB-4A66-9F49-E2219A489709}"/>
+    <hyperlink ref="F37" r:id="rId23" xr:uid="{A06BEF00-8A3F-4C3D-AC2B-3348FC404F24}"/>
+    <hyperlink ref="F39" r:id="rId24" xr:uid="{0282FB9B-42FB-439A-A1E7-48B59407839B}"/>
+    <hyperlink ref="F38" r:id="rId25" xr:uid="{67C6AAB6-8AE8-441D-9D53-774C7DEB4B21}"/>
+    <hyperlink ref="F4" r:id="rId26" xr:uid="{9135C0A2-C458-44CF-9CC7-76C7037D359A}"/>
+    <hyperlink ref="F11" r:id="rId27" xr:uid="{1C757C4C-9C9F-4D70-8901-9B1D64AD93BB}"/>
+    <hyperlink ref="F46" r:id="rId28" xr:uid="{2EA6B1B5-0A0D-4667-A5A4-9744DD64D619}"/>
+    <hyperlink ref="F13" r:id="rId29" xr:uid="{B7653C0F-781A-4648-9346-D834B1ECA82B}"/>
+    <hyperlink ref="F31" r:id="rId30" xr:uid="{1E8D4E10-0170-405E-AB0E-5D8C8D966B8E}"/>
+    <hyperlink ref="F32" r:id="rId31" xr:uid="{A63526C6-BC95-4D89-86E9-0CAF79AF1A82}"/>
+    <hyperlink ref="F33" r:id="rId32" xr:uid="{4CE95E19-A15D-4FBB-A2F4-FED5B88FF4C1}"/>
+    <hyperlink ref="F34" r:id="rId33" xr:uid="{78C37C45-5FE4-4329-9CA5-653FAE125404}"/>
+    <hyperlink ref="F19" r:id="rId34" xr:uid="{1BB8CE95-2359-4235-A103-E1FBD1D16463}"/>
+    <hyperlink ref="F20" r:id="rId35" xr:uid="{9E913672-6C4A-4FA8-AB2E-6DCF1838E5D6}"/>
+    <hyperlink ref="F21" r:id="rId36" xr:uid="{4089C4E2-CBC2-4927-BBB2-EAF7FC2CCFA4}"/>
+    <hyperlink ref="F22" r:id="rId37" xr:uid="{128F8774-B115-4831-AA93-7CCD8071692C}"/>
+    <hyperlink ref="F17" r:id="rId38" xr:uid="{9D12BF89-4118-4DF4-B83D-1973C07EC800}"/>
+    <hyperlink ref="F18" r:id="rId39" xr:uid="{4E6D1BF7-C728-4BF7-A786-AEE05E393B55}"/>
+    <hyperlink ref="F25" r:id="rId40" xr:uid="{A2417557-63CD-4C32-9020-47FB39ED5068}"/>
+    <hyperlink ref="F26" r:id="rId41" xr:uid="{FF1DC30F-E4A3-4AD4-9DAC-6FF96770F524}"/>
+    <hyperlink ref="F27" r:id="rId42" xr:uid="{7A71B4C2-0B08-4EAE-BC93-5EE23AB3705A}"/>
+    <hyperlink ref="F28" r:id="rId43" xr:uid="{CDD0CB2A-BAC4-4F3F-8AF3-197A13B55B6F}"/>
+    <hyperlink ref="F23" r:id="rId44" xr:uid="{A4B2C458-20EB-4BD8-8705-FA822280756C}"/>
+    <hyperlink ref="F24" r:id="rId45" xr:uid="{37635805-69B7-4C8B-B91C-209D0FA6BF97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
